--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>807859.7419499716</v>
+        <v>805382.5892808791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>198.5560652693242</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980651</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>73.07247998358756</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>224.3667140100208</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559958</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
-        <v>251.8135122828326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>23.79925355567548</v>
+        <v>270.5139490778467</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>209.7721773083536</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329762</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>5.232049081172707</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.5664694578244</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337148</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.905530700185</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.018581172448512</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>64.82965959790893</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>-2.250999386887997e-12</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20.92847288553122</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.52079624060374</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126656</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326504009</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126606</v>
+        <v>19.9155582618913</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740324</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613192</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833707</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>93.62264337260766</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>112.5284434523318</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161876958</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272862</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365941</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>101.393069766706</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833782</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.61263105777471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428189</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1329.838061543121</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.838061543121</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>971.5723629363704</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>971.5723629363704</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583054</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583054</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.577233583054</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.437901607243</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710445</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.9516006271326</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>498.0154176992257</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4486,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1366.00678639235</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1366.00678639235</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1366.00678639235</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>1076.58961635539</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>848.6000654573724</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.6000654573724</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756483</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1210.836060705128</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>825.0478081068841</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>818.1023073576806</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796416</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820605</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1129.150109894277</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>901.1605589962596</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1212.120503052117</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>957.4360148462299</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>957.4360148462299</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>957.4360148462299</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.224011468282</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1265.26149452787</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>906.9957959211201</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>521.2075433228761</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610854</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
         <v>101.3471995907325</v>
@@ -5036,13 +5036,13 @@
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301225</v>
@@ -5060,31 +5060,31 @@
         <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
         <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750372</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.26048438298</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.19759703941</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769295</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508215</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532404</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469185</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469185</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843891</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.4853457279202</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>517.5491628000133</v>
+        <v>203.8650582458547</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000133</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.500225288892</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5215,34 +5215,34 @@
         <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014274</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454562</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248675</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211714</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>1014.920823313697</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>794.1282441701668</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,7 +5261,7 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246418</v>
+        <v>561.9183350635712</v>
       </c>
       <c r="C16" t="n">
-        <v>745.0885253246418</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="D16" t="n">
-        <v>594.9718859123061</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>447.0587923299131</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>300.1688448320028</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298412</v>
+        <v>964.3593790373411</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548815</v>
+        <v>743.566799893811</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>261.846482147429</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5729,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048579</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="D22" t="n">
-        <v>444.701316492522</v>
+        <v>363.7369613277388</v>
       </c>
       <c r="E22" t="n">
-        <v>296.788222910129</v>
+        <v>215.8238677453458</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453458</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797772</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138445</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703144</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925215</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,13 +6218,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6233,43 +6233,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400689</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133953</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,10 +6494,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6707,16 +6707,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135293</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856224</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>550.6376870732868</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279803</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.754138832767</v>
+        <v>580.8993044876656</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048601</v>
+        <v>411.9631215597587</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925245</v>
+        <v>261.8464821474229</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101315</v>
+        <v>261.8464821474229</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122212</v>
+        <v>261.8464821474229</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230285</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230285</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603204</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947402</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741515</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704554</v>
+        <v>1211.329899359453</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806537</v>
+        <v>983.3403484614355</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630067</v>
+        <v>762.5477693179054</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1053.171308869726</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>884.2351259418182</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>734.1184865294824</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.601903741513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.612352843495</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.819773699965</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130767</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184731</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803132</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>401.6439966605387</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.26551072411291</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091726113</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>160.2282399261793</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.712393279258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>144.5956654067376</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85445046951794</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0033420516647</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564186798</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0033420516652</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459543</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016407</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124988</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459417</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7828069546806</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>104.8770068749565</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051662</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237784</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>45.04089287986319</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459342</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.6341900408531</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228727</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>992431.8797317733</v>
+        <v>992431.8797317726</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997903.7440954425</v>
+        <v>997903.7440954426</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954427</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997903.7440954427</v>
+        <v>997903.7440954424</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997903.7440954427</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997903.7440954427</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>997903.7440954427</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="16">
@@ -26323,22 +26323,22 @@
         <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.8801099659</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
@@ -26347,7 +26347,7 @@
         <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="O2" t="n">
         <v>423751.9648372531</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185159</v>
+        <v>143114.1392185158</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051379</v>
+        <v>166521.3471051376</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115332</v>
+        <v>37377.32855115338</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848923</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224528</v>
+        <v>3023.297977224912</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="E4" t="n">
-        <v>9848.023364462857</v>
+        <v>9848.023364462855</v>
       </c>
       <c r="F4" t="n">
-        <v>9940.611700543546</v>
+        <v>9940.611700543544</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914573.0372442375</v>
+        <v>-914573.0372442376</v>
       </c>
       <c r="C6" t="n">
-        <v>30540.06791212928</v>
+        <v>30540.06791212945</v>
       </c>
       <c r="D6" t="n">
         <v>233978.8095242352</v>
       </c>
       <c r="E6" t="n">
-        <v>147898.5532262191</v>
+        <v>147688.5889823744</v>
       </c>
       <c r="F6" t="n">
-        <v>144802.7927904463</v>
+        <v>144756.8877948807</v>
       </c>
       <c r="G6" t="n">
-        <v>301515.0544559985</v>
+        <v>301480.3165305619</v>
       </c>
       <c r="H6" t="n">
-        <v>312682.2906915771</v>
+        <v>312647.5527661416</v>
       </c>
       <c r="I6" t="n">
-        <v>312682.2906915771</v>
+        <v>312647.5527661415</v>
       </c>
       <c r="J6" t="n">
-        <v>145077.1128815944</v>
+        <v>145042.3749561592</v>
       </c>
       <c r="K6" t="n">
-        <v>263572.1979855228</v>
+        <v>263537.4600600871</v>
       </c>
       <c r="L6" t="n">
-        <v>312682.2906915772</v>
+        <v>312647.5527661415</v>
       </c>
       <c r="M6" t="n">
-        <v>275304.9621404239</v>
+        <v>275270.2242149882</v>
       </c>
       <c r="N6" t="n">
-        <v>268899.8841330879</v>
+        <v>268865.1462076523</v>
       </c>
       <c r="O6" t="n">
-        <v>309658.9927143526</v>
+        <v>309624.2547889164</v>
       </c>
       <c r="P6" t="n">
-        <v>312682.2906915771</v>
+        <v>312647.5527661415</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,25 +26793,25 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808648</v>
+        <v>981.3883278086479</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012578</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063554</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173581</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063554</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364279</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063554</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173581</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>208.3199804723873</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988498</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>147.6762160136244</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>140.9061777609867</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797457683</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
-        <v>34.70948605375844</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>303.9530049144594</v>
+        <v>57.23830939228816</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>76.4396608972593</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.786932824787932e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.827164546535093e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.855487701805992e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.163290569400204e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.858247055177344e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.826440416075214e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.094524307703914e-12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.742195080722396e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.073837398105146e-12</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-3.126309877643507e-12</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
         <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
         <v>0.3898437041188518</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310836</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697586</v>
@@ -31911,19 +31911,19 @@
         <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
         <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
         <v>342.6467528263709</v>
@@ -31932,22 +31932,22 @@
         <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>380.8714430074307</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420053</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
         <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512094</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
         <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
         <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
         <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190456</v>
@@ -35586,7 +35586,7 @@
         <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191335</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
